--- a/job_link_test_results.xlsx
+++ b/job_link_test_results.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E58"/>
+  <dimension ref="A1:E201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,7 +454,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://www.mether.info/jobs/</t>
+          <t>https://nz.mether.info/disclaimer.php</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -475,22 +475,19 @@
       <c r="A3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>https://www.mether.info/jobs/post-job.php</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>200</v>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Valid</t>
+          <t>Skipped</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Link is working fine</t>
+          <t>No valid href or JavaScript link</t>
         </is>
       </c>
     </row>
@@ -500,7 +497,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://www.mether.info/jobs/</t>
+          <t>https://nz.mether.info/index.php</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -523,7 +520,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://www.mether.info/jobs/post-job.php</t>
+          <t>https://nz.mether.info/all-categories.php</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -544,19 +541,22 @@
       <c r="A6" t="n">
         <v>5</v>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>https://nz.mether.info/business-listing/Accountants</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>200</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Skipped</t>
+          <t>Valid</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>No valid href or JavaScript link</t>
+          <t>Link is working fine</t>
         </is>
       </c>
     </row>
@@ -564,19 +564,22 @@
       <c r="A7" t="n">
         <v>6</v>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>https://nz.mether.info/business-listing/Air-Ticketing</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>200</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Skipped</t>
+          <t>Valid</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>No valid href or JavaScript link</t>
+          <t>Link is working fine</t>
         </is>
       </c>
     </row>
@@ -586,7 +589,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>https://www.mether.info/jobs/apply-now.php?id=3</t>
+          <t>https://nz.mether.info/business-listing/Barber-Shops</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -609,7 +612,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://www.mether.info/jobs/more-info.php?id=3</t>
+          <t>https://nz.mether.info/business-listing/Builders</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -632,7 +635,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>https://www.mether.info/jobs/apply-now.php?id=4</t>
+          <t>https://nz.mether.info/business-listing/Cafes</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -655,7 +658,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>https://www.mether.info/jobs/more-info.php?id=4</t>
+          <t>https://nz.mether.info/business-listing/Carpenters</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -678,20 +681,20 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://www.qsupreme.com.au/</t>
+          <t>https://nz.mether.info/business-listing/Chauffeur-Cars</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>406</v>
+        <v>200</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Broken</t>
+          <t>Valid</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Link is broken or inaccessible</t>
+          <t>Link is working fine</t>
         </is>
       </c>
     </row>
@@ -701,20 +704,20 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>https://dreamworkstech.com.au/</t>
+          <t>https://nz.mether.info/business-listing/Child-Care-Centres</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>406</v>
+        <v>200</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Broken</t>
+          <t>Valid</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Link is broken or inaccessible</t>
+          <t>Link is working fine</t>
         </is>
       </c>
     </row>
@@ -724,20 +727,20 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>https://www.qsupreme.com.au/</t>
+          <t>https://nz.mether.info/business-listing/Cleaning-Companies</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>406</v>
+        <v>200</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Broken</t>
+          <t>Valid</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Link is broken or inaccessible</t>
+          <t>Link is working fine</t>
         </is>
       </c>
     </row>
@@ -747,20 +750,20 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>https://dreamworkstech.com.au/</t>
+          <t>https://nz.mether.info/business-listing/Colleges</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>406</v>
+        <v>200</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Broken</t>
+          <t>Valid</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Link is broken or inaccessible</t>
+          <t>Link is working fine</t>
         </is>
       </c>
     </row>
@@ -770,20 +773,20 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>https://www.qsupreme.com.au/</t>
+          <t>https://nz.mether.info/business-listing/Accountants</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>406</v>
+        <v>200</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Broken</t>
+          <t>Valid</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Link is broken or inaccessible</t>
+          <t>Link is working fine</t>
         </is>
       </c>
     </row>
@@ -793,20 +796,20 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>https://dreamworkstech.com.au/</t>
+          <t>https://nz.mether.info/business-listing/Air-Ticketing</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>406</v>
+        <v>200</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Broken</t>
+          <t>Valid</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Link is broken or inaccessible</t>
+          <t>Link is working fine</t>
         </is>
       </c>
     </row>
@@ -816,20 +819,20 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>https://www.qsupreme.com.au/</t>
+          <t>https://nz.mether.info/business-listing/Barber-Shops</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>406</v>
+        <v>200</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Broken</t>
+          <t>Valid</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Link is broken or inaccessible</t>
+          <t>Link is working fine</t>
         </is>
       </c>
     </row>
@@ -839,20 +842,20 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>https://dreamworkstech.com.au/</t>
+          <t>https://nz.mether.info/business-listing/Builders</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>406</v>
+        <v>200</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Broken</t>
+          <t>Valid</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Link is broken or inaccessible</t>
+          <t>Link is working fine</t>
         </is>
       </c>
     </row>
@@ -862,7 +865,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>https://www.mether.info/jobs/category-job-listing.php?category=Accounting</t>
+          <t>https://nz.mether.info/business-listing/Cafes</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -885,7 +888,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>https://www.mether.info/jobs/category-job-listing.php?category=Admin%20And%20Office%20Support</t>
+          <t>https://nz.mether.info/business-listing/Carpenters</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -908,7 +911,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>https://www.mether.info/jobs/category-job-listing.php?category=Agriculture%20Animal%20And%20Fishing</t>
+          <t>https://nz.mether.info/business-listing/Chauffeur-Cars</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -931,7 +934,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>https://www.mether.info/jobs/category-job-listing.php?category=Banking%20Superannuation%20And%20Finance</t>
+          <t>https://nz.mether.info/business-listing/Child-Care-Centres</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -954,7 +957,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>https://www.mether.info/jobs/category-job-listing.php?category=Construction</t>
+          <t>https://nz.mether.info/business-listing/Cleaning-Companies</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -977,7 +980,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>https://www.mether.info/jobs/category-job-listing.php?category=Customer%20Service%20And%20Call%20Centre</t>
+          <t>https://nz.mether.info/business-listing/Colleges</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -1000,7 +1003,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>https://www.mether.info/jobs/category-job-listing.php?category=Design%20And%20Architecture</t>
+          <t>https://nz.mether.info/business-listing/Doctors</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -1023,7 +1026,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>https://www.mether.info/jobs/category-job-listing.php?category=Editorial%20Media%20And%20Creative%20Arts</t>
+          <t>https://nz.mether.info/business-listing/Electrician</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -1046,7 +1049,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>https://www.mether.info/jobs/category-job-listing.php?category=Education%20Training%20And%20Childcare</t>
+          <t>https://nz.mether.info/business-listing/Event-Organisers</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -1069,20 +1072,20 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>https://www.qsupreme.com.au/</t>
+          <t>https://nz.mether.info/business-listing/Finance-Brokers</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>406</v>
+        <v>200</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Broken</t>
+          <t>Valid</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Link is broken or inaccessible</t>
+          <t>Link is working fine</t>
         </is>
       </c>
     </row>
@@ -1092,20 +1095,20 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>https://dreamworkstech.com.au/</t>
+          <t>https://nz.mether.info/business-listing/Fruit-Shops</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>406</v>
+        <v>200</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Broken</t>
+          <t>Valid</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Link is broken or inaccessible</t>
+          <t>Link is working fine</t>
         </is>
       </c>
     </row>
@@ -1115,20 +1118,20 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>https://www.qsupreme.com.au/</t>
+          <t>https://nz.mether.info/business-listing/Grocery-Shops</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>406</v>
+        <v>200</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Broken</t>
+          <t>Valid</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Link is broken or inaccessible</t>
+          <t>Link is working fine</t>
         </is>
       </c>
     </row>
@@ -1138,20 +1141,20 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>https://dreamworkstech.com.au/</t>
+          <t>https://nz.mether.info/business-listing/Handyman-Services</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>406</v>
+        <v>200</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Broken</t>
+          <t>Valid</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Link is broken or inaccessible</t>
+          <t>Link is working fine</t>
         </is>
       </c>
     </row>
@@ -1161,7 +1164,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>https://www.mether.info/jobs/</t>
+          <t>https://nz.mether.info/business-listing/Hotels</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -1184,7 +1187,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>https://fb.com/au.mether.info</t>
+          <t>https://nz.mether.info/business-listing/Indian-Sweets-Shop</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -1207,7 +1210,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/mether.info/</t>
+          <t>https://nz.mether.info/business-listing/Lawn-Mowers</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -1230,20 +1233,20 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>https://twitter.com/mether_info</t>
+          <t>https://nz.mether.info/business-listing/Mechanics</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>403</v>
+        <v>200</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Broken</t>
+          <t>Valid</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Link is broken or inaccessible</t>
+          <t>Link is working fine</t>
         </is>
       </c>
     </row>
@@ -1253,22 +1256,20 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@metherinfotech?_t=8iAZfoiENv7&amp;_r=1</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>Error</t>
-        </is>
+          <t>https://nz.mether.info/business-listing/Migration-Agents</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>200</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Failed</t>
+          <t>Valid</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Request failed: ('Connection aborted.', ConnectionResetError(104, 'Connection reset by peer'))</t>
+          <t>Link is working fine</t>
         </is>
       </c>
     </row>
@@ -1278,7 +1279,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>https://www.mether.info/jobs/category-job-listing.php?category=Accounting</t>
+          <t>https://nz.mether.info/business-listing/NDIS-Providers</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -1301,7 +1302,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>https://www.mether.info/jobs/category-job-listing.php?category=Admin%20And%20Office%20Support</t>
+          <t>https://nz.mether.info/business-listing/Photographers</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -1324,7 +1325,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>https://www.mether.info/jobs/category-job-listing.php?category=Agriculture%20Animal%20And%20Fishing</t>
+          <t>https://nz.mether.info/business-listing/Plumbers</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -1347,7 +1348,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>https://www.mether.info/jobs/category-job-listing.php?category=Banking%20Superannuation%20And%20Finance</t>
+          <t>https://nz.mether.info/business-listing/Real-Estate-Agents</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -1370,7 +1371,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>https://www.mether.info/jobs/category-job-listing.php?category=Construction</t>
+          <t>https://nz.mether.info/business-listing/Restaurants</t>
         </is>
       </c>
       <c r="C42" t="n">
@@ -1393,7 +1394,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>https://www.mether.info/jobs/category-job-listing.php?category=Customer%20Service%20And%20Call%20Centre</t>
+          <t>https://nz.mether.info/business-listing/Security-Companies</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -1416,7 +1417,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>https://www.mether.info/jobs/job-type-listing.php?type=Work%20From%20Home</t>
+          <t>https://nz.mether.info/business-listing/Upcoming-Events</t>
         </is>
       </c>
       <c r="C44" t="n">
@@ -1439,7 +1440,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>https://www.mether.info/jobs/job-type-listing.php?type=Work%20From%20Office</t>
+          <t>https://nz.mether.info/business-listing/Website-Developers</t>
         </is>
       </c>
       <c r="C45" t="n">
@@ -1462,7 +1463,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>https://www.mether.info/jobs/job-type-listing.php?type=Full%20Time</t>
+          <t>https://nz.mether.info/business-listing/Security-Screens</t>
         </is>
       </c>
       <c r="C46" t="n">
@@ -1485,7 +1486,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>https://www.mether.info/jobs/job-type-listing.php?type=Part%20Time</t>
+          <t>https://nz.mether.info/business-listing/Pressure-Washers</t>
         </is>
       </c>
       <c r="C47" t="n">
@@ -1508,7 +1509,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>https://www.mether.info/jobs/job-type-listing.php?type=Casual</t>
+          <t>https://nz.mether.info/business-listing/Home-Renovators</t>
         </is>
       </c>
       <c r="C48" t="n">
@@ -1531,20 +1532,20 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>https://www.mether.info/jobs/faq.php</t>
+          <t>https://nz.mether.info/advertise-with-us.php</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Valid</t>
+          <t>Broken</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Link is working fine</t>
+          <t>Link is broken or inaccessible</t>
         </is>
       </c>
     </row>
@@ -1554,7 +1555,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>https://www.mether.info/jobs/feedback.php</t>
+          <t>https://nz.mether.info/add-business.php</t>
         </is>
       </c>
       <c r="C50" t="n">
@@ -1577,7 +1578,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>https://www.mether.info/jobs/support.php</t>
+          <t>https://nz.mether.info/business-listing/Accountants</t>
         </is>
       </c>
       <c r="C51" t="n">
@@ -1600,7 +1601,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>https://www.mether.info/jobs/privacy-policy.php</t>
+          <t>https://nz.mether.info/business-listing/Air-Ticketing</t>
         </is>
       </c>
       <c r="C52" t="n">
@@ -1623,7 +1624,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>https://www.mether.info/jobs/terms-of-use.php</t>
+          <t>https://nz.mether.info/business-listing/Barber-Shops</t>
         </is>
       </c>
       <c r="C53" t="n">
@@ -1646,7 +1647,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>https://www.mether.info/jobs/disclaimer.php</t>
+          <t>https://nz.mether.info/business-listing/Builders</t>
         </is>
       </c>
       <c r="C54" t="n">
@@ -1669,7 +1670,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>https://policies.google.com/privacy</t>
+          <t>https://nz.mether.info/business-listing/Cafes</t>
         </is>
       </c>
       <c r="C55" t="n">
@@ -1692,7 +1693,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>https://policies.google.com/terms</t>
+          <t>https://nz.mether.info/business-listing/Carpenters</t>
         </is>
       </c>
       <c r="C56" t="n">
@@ -1715,20 +1716,20 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>https://www.goldensparrowtech.com/</t>
+          <t>https://nz.mether.info/business-listing/Chauffeur-Cars</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>406</v>
+        <v>200</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Broken</t>
+          <t>Valid</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Link is broken or inaccessible</t>
+          <t>Link is working fine</t>
         </is>
       </c>
     </row>
@@ -1738,7 +1739,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>https://www.mether.info/jobs/#mm-0</t>
+          <t>https://nz.mether.info/business-listing/Child-Care-Centres</t>
         </is>
       </c>
       <c r="C58" t="n">
@@ -1752,6 +1753,3316 @@
       <c r="E58" t="inlineStr">
         <is>
           <t>Link is working fine</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>https://nz.mether.info/business-listing/Cleaning-Companies</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>200</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Link is working fine</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>https://nz.mether.info/business-listing/Colleges</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>200</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Link is working fine</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>https://nz.mether.info/add-business.php</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>200</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Link is working fine</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>https://nz.mether.info/add-business.php</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>200</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Link is working fine</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>https://nz.mether.info/advertise-with-us.php</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>500</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Broken</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Link is broken or inaccessible</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>https://nz.mether.info/business-listing/Accountants</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>200</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Link is working fine</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>https://nz.mether.info/business-listing/Air-Ticketing</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>200</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Link is working fine</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>https://nz.mether.info/business-listing/Barber-Shops</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>200</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Link is working fine</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>https://nz.mether.info/business-listing/Builders</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>200</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Link is working fine</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>https://nz.mether.info/business-listing/Cafes</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>200</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Link is working fine</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>https://nz.mether.info/business-listing/Carpenters</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>200</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Link is working fine</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>https://nz.mether.info/business-listing/Chauffeur-Cars</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>200</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Link is working fine</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>https://nz.mether.info/business-listing/Child-Care-Centres</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>200</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Link is working fine</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>https://nz.mether.info/business-listing/Cleaning-Companies</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>200</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Link is working fine</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>https://nz.mether.info/business-listing/Colleges</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>200</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Link is working fine</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>https://nz.mether.info/business-listing/Doctors</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>200</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Link is working fine</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>https://nz.mether.info/business-listing/Electrician</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>200</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Link is working fine</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>https://nz.mether.info/business-listing/Event-Organisers</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>200</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Link is working fine</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>https://nz.mether.info/business-listing/Finance-Brokers</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>200</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Link is working fine</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>https://nz.mether.info/business-listing/Fruit-Shops</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>200</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Link is working fine</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>https://nz.mether.info/business-listing/Grocery-Shops</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>200</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Link is working fine</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>https://nz.mether.info/business-listing/Handyman-Services</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>200</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Link is working fine</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>https://nz.mether.info/business-listing/Hotels</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>200</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Link is working fine</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>https://nz.mether.info/business-listing/Indian-Sweets-Shop</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>200</v>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Link is working fine</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>https://nz.mether.info/business-listing/Lawn-Mowers</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>200</v>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Link is working fine</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>https://nz.mether.info/business-listing/Mechanics</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>200</v>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Link is working fine</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>https://nz.mether.info/business-listing/Migration-Agents</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>200</v>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Link is working fine</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>https://nz.mether.info/business-listing/NDIS-Providers</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>200</v>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Link is working fine</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>https://nz.mether.info/business-listing/Photographers</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>200</v>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Link is working fine</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>https://nz.mether.info/business-listing/Plumbers</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>200</v>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Link is working fine</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>https://nz.mether.info/business-listing/Real-Estate-Agents</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>200</v>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Link is working fine</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>https://nz.mether.info/business-listing/Restaurants</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>200</v>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Link is working fine</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>https://nz.mether.info/business-listing/Security-Companies</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>200</v>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Link is working fine</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>https://nz.mether.info/business-listing/Upcoming-Events</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>200</v>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Link is working fine</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>https://nz.mether.info/business-listing/Website-Developers</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>200</v>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Link is working fine</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>https://nz.mether.info/business-listing/Security-Screens</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>200</v>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Link is working fine</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>https://nz.mether.info/business-listing/Pressure-Washers</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>200</v>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Link is working fine</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>https://nz.mether.info/business-listing/Home-Renovators</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>200</v>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Link is working fine</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>96</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Skipped</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>No valid href or JavaScript link</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>97</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Skipped</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>No valid href or JavaScript link</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>https://nz.mether.info/all-categories.php</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>200</v>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Link is working fine</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>https://nz.mether.info/business-listing/Colleges---</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>200</v>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Link is working fine</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>https://nz.mether.info/business-listing/Migration-Agents</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>200</v>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Link is working fine</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>https://nz.mether.info/business-listing/Restaurants---</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>200</v>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Link is working fine</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>102</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>https://nz.mether.info/business-listing/Grocery-Shops---</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>200</v>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Link is working fine</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>103</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>https://nz.mether.info/business-listing/Mechanics---</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>200</v>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>Link is working fine</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>104</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>https://nz.mether.info/all-categories.php</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>200</v>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Link is working fine</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>105</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>https://nz.mether.info/business-listing/Colleges</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>200</v>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Link is working fine</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>106</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>https://nz.mether.info/business-listing/Migration-Agents</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>200</v>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>Link is working fine</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>107</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>https://nz.mether.info/business-listing/Restaurants</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>200</v>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>Link is working fine</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>108</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>https://nz.mether.info/business-listing/Grocery-Shops</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>200</v>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>Link is working fine</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>109</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>https://nz.mether.info/business-listing/Mechanics</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>200</v>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>Link is working fine</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>110</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>https://nz.mether.info/all-categories.php</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>200</v>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>Link is working fine</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>111</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>https://nz.mether.info/#</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>200</v>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>Link is working fine</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>112</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>https://nz.mether.info/#</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>200</v>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>Link is working fine</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>113</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>https://nz.mether.info/#</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>200</v>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>Link is working fine</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>114</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>https://nz.mether.info/#</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>200</v>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>Link is working fine</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>115</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>https://nz.mether.info/#</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>200</v>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>Link is working fine</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>116</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>https://nz.mether.info/#</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>200</v>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>Link is working fine</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>117</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>https://nz.mether.info/#</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>200</v>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>Link is working fine</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>118</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>https://www.mether.info/jobs/</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>200</v>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>Link is working fine</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>119</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>https://www.mether.info/tools</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>200</v>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>Link is working fine</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>120</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>https://www.mether.info/property/</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>200</v>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>Link is working fine</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>121</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>https://nz.mether.info/products-online-coming-soon.php</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>200</v>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>Link is working fine</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>122</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>https://nz.mether.info/about.php</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>200</v>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>Link is working fine</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>123</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>https://nz.mether.info/mether-coupons.php</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>200</v>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>Link is working fine</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>124</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>https://nz.mether.info/mether-coupons.php</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>200</v>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>Link is working fine</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>125</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>https://nz.mether.info/upcoming-events.php</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
+        <v>200</v>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>Link is working fine</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>126</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>https://nz.mether.info/popular-business/Supermarkets-Near-You</t>
+        </is>
+      </c>
+      <c r="C127" t="n">
+        <v>200</v>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>Link is working fine</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>127</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>https://nz.mether.info/popular-business/Supermarkets-Near-You</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v>200</v>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>Link is working fine</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>128</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>https://nz.mether.info/popular-business/Theme-Parks-Near-You</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v>200</v>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>Link is working fine</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>129</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>https://nz.mether.info/popular-business/Theme-Parks-Near-You</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
+        <v>200</v>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>Link is working fine</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>130</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>https://nz.mether.info/popular-business/Electronics-Stores-Near-You</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
+        <v>200</v>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>Link is working fine</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>131</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>https://nz.mether.info/popular-business/Electronics-Stores-Near-You</t>
+        </is>
+      </c>
+      <c r="C132" t="n">
+        <v>200</v>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>Link is working fine</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>132</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>https://nz.mether.info/popular-business/Public-Transport-Near-You</t>
+        </is>
+      </c>
+      <c r="C133" t="n">
+        <v>200</v>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>Link is working fine</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>133</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>https://nz.mether.info/popular-business/Public-Transport-Near-You</t>
+        </is>
+      </c>
+      <c r="C134" t="n">
+        <v>200</v>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>Link is working fine</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>134</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>https://nz.mether.info/popular-business/Fast-Food-Stores-Nearby</t>
+        </is>
+      </c>
+      <c r="C135" t="n">
+        <v>200</v>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>Link is working fine</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>135</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>https://nz.mether.info/popular-business/Fast-Food-Stores-Nearby</t>
+        </is>
+      </c>
+      <c r="C136" t="n">
+        <v>200</v>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>Link is working fine</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>136</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>https://nz.mether.info/upcoming-movies.php</t>
+        </is>
+      </c>
+      <c r="C137" t="n">
+        <v>200</v>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>Link is working fine</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>137</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>https://nz.mether.info/upcoming-movies.php</t>
+        </is>
+      </c>
+      <c r="C138" t="n">
+        <v>200</v>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>Link is working fine</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>138</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>https://www.nz.mether.info/advertise-with-us.php</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>Request failed: HTTPSConnectionPool(host='www.nz.mether.info', port=443): Max retries exceeded with url: /advertise-with-us.php (Caused by NameResolutionError("&lt;urllib3.connection.HTTPSConnection object at 0x785835775250&gt;: Failed to resolve 'www.nz.mether.info' ([Errno -2] Name or service not known)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>139</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>https://www.nz.mether.info/advertise-with-us.php</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>Request failed: HTTPSConnectionPool(host='www.nz.mether.info', port=443): Max retries exceeded with url: /advertise-with-us.php (Caused by NameResolutionError("&lt;urllib3.connection.HTTPSConnection object at 0x785835775f10&gt;: Failed to resolve 'www.nz.mether.info' ([Errno -2] Name or service not known)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>140</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>https://fb.com/au.mether.info</t>
+        </is>
+      </c>
+      <c r="C141" t="n">
+        <v>200</v>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>Link is working fine</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>141</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>https://fb.com/au.mether.info</t>
+        </is>
+      </c>
+      <c r="C142" t="n">
+        <v>200</v>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>Link is working fine</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>142</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>https://dreamworkstech.com.au/</t>
+        </is>
+      </c>
+      <c r="C143" t="n">
+        <v>406</v>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>Broken</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>Link is broken or inaccessible</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>143</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>https://dreamworkstech.com.au/</t>
+        </is>
+      </c>
+      <c r="C144" t="n">
+        <v>406</v>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>Broken</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>Link is broken or inaccessible</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>144</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/mether.info/</t>
+        </is>
+      </c>
+      <c r="C145" t="n">
+        <v>200</v>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>Link is working fine</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>145</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/mether.info/</t>
+        </is>
+      </c>
+      <c r="C146" t="n">
+        <v>200</v>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>Link is working fine</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>146</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>https://www.mether.info/jobs/</t>
+        </is>
+      </c>
+      <c r="C147" t="n">
+        <v>200</v>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>Link is working fine</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>147</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>https://www.mether.info/jobs/</t>
+        </is>
+      </c>
+      <c r="C148" t="n">
+        <v>200</v>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>Link is working fine</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>148</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@metherinfotech?_t=8iAZfoiENv7&amp;_r=1</t>
+        </is>
+      </c>
+      <c r="C149" t="n">
+        <v>200</v>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>Link is working fine</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>149</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@metherinfotech?_t=8iAZfoiENv7&amp;_r=1</t>
+        </is>
+      </c>
+      <c r="C150" t="n">
+        <v>200</v>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>Link is working fine</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>150</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>https://www.nz.mether.info/advertise-with-us.php</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>Request failed: HTTPSConnectionPool(host='www.nz.mether.info', port=443): Max retries exceeded with url: /advertise-with-us.php (Caused by NameResolutionError("&lt;urllib3.connection.HTTPSConnection object at 0x785835776990&gt;: Failed to resolve 'www.nz.mether.info' ([Errno -2] Name or service not known)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>151</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>https://www.nz.mether.info/advertise-with-us.php</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>Request failed: HTTPSConnectionPool(host='www.nz.mether.info', port=443): Max retries exceeded with url: /advertise-with-us.php (Caused by NameResolutionError("&lt;urllib3.connection.HTTPSConnection object at 0x785835775e80&gt;: Failed to resolve 'www.nz.mether.info' ([Errno -2] Name or service not known)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>152</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>https://fb.com/au.mether.info</t>
+        </is>
+      </c>
+      <c r="C153" t="n">
+        <v>200</v>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>Link is working fine</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>153</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>https://fb.com/au.mether.info</t>
+        </is>
+      </c>
+      <c r="C154" t="n">
+        <v>200</v>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>Link is working fine</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>154</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>https://www.nz.mether.info/coming-soon.php</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>Request failed: HTTPSConnectionPool(host='www.nz.mether.info', port=443): Max retries exceeded with url: /coming-soon.php (Caused by NameResolutionError("&lt;urllib3.connection.HTTPSConnection object at 0x785835777170&gt;: Failed to resolve 'www.nz.mether.info' ([Errno -2] Name or service not known)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>155</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>https://www.ticketsfiesta.com/</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>Request failed: HTTPSConnectionPool(host='www.ticketsfiesta.com', port=443): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPSConnection object at 0x785835777680&gt;: Failed to resolve 'www.ticketsfiesta.com' ([Errno -3] Temporary failure in name resolution)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>156</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>https://www.nz.mether.info/coming-soon.php</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>Request failed: HTTPSConnectionPool(host='www.nz.mether.info', port=443): Max retries exceeded with url: /coming-soon.php (Caused by NameResolutionError("&lt;urllib3.connection.HTTPSConnection object at 0x78583575b950&gt;: Failed to resolve 'www.nz.mether.info' ([Errno -2] Name or service not known)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>157</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>https://aprildigital.media/</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>Request failed: HTTPSConnectionPool(host='aprildigital.media', port=443): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPSConnection object at 0x7858357742f0&gt;: Failed to resolve 'aprildigital.media' ([Errno -5] No address associated with hostname)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>158</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>https://www.mether.info/jobs/</t>
+        </is>
+      </c>
+      <c r="C159" t="n">
+        <v>200</v>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>Link is working fine</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>159</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>https://www.nz.mether.info/coming-soon.php</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>Request failed: HTTPSConnectionPool(host='www.nz.mether.info', port=443): Max retries exceeded with url: /coming-soon.php (Caused by NameResolutionError("&lt;urllib3.connection.HTTPSConnection object at 0x785835776480&gt;: Failed to resolve 'www.nz.mether.info' ([Errno -2] Name or service not known)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>160</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>https://www.nz.mether.info/coming-soon.php</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>Request failed: HTTPSConnectionPool(host='www.nz.mether.info', port=443): Max retries exceeded with url: /coming-soon.php (Caused by NameResolutionError("&lt;urllib3.connection.HTTPSConnection object at 0x785835775a60&gt;: Failed to resolve 'www.nz.mether.info' ([Errno -2] Name or service not known)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>161</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>https://www.ticketsfiesta.com/</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>Request failed: HTTPSConnectionPool(host='www.ticketsfiesta.com', port=443): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPSConnection object at 0x785835775f40&gt;: Failed to resolve 'www.ticketsfiesta.com' ([Errno -3] Temporary failure in name resolution)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>162</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>https://www.nz.mether.info/coming-soon.php</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>Request failed: HTTPSConnectionPool(host='www.nz.mether.info', port=443): Max retries exceeded with url: /coming-soon.php (Caused by NameResolutionError("&lt;urllib3.connection.HTTPSConnection object at 0x7858357b8590&gt;: Failed to resolve 'www.nz.mether.info' ([Errno -2] Name or service not known)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>163</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>https://aprildigital.media/</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>Request failed: HTTPSConnectionPool(host='aprildigital.media', port=443): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPSConnection object at 0x7858357b8ec0&gt;: Failed to resolve 'aprildigital.media' ([Errno -5] No address associated with hostname)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>164</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>https://www.mether.info/jobs/</t>
+        </is>
+      </c>
+      <c r="C165" t="n">
+        <v>200</v>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>Link is working fine</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>165</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>https://www.nz.mether.info/coming-soon.php</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>Request failed: HTTPSConnectionPool(host='www.nz.mether.info', port=443): Max retries exceeded with url: /coming-soon.php (Caused by NameResolutionError("&lt;urllib3.connection.HTTPSConnection object at 0x7858357756a0&gt;: Failed to resolve 'www.nz.mether.info' ([Errno -2] Name or service not known)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>166</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>https://startickets.com.au/</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>Request failed: HTTPSConnectionPool(host='startickets.com.au', port=443): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPSConnection object at 0x785835777a70&gt;: Failed to resolve 'startickets.com.au' ([Errno -2] Name or service not known)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>167</v>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>Skipped</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>No valid href or JavaScript link</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>168</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>https://nz.mether.info/add-business.php</t>
+        </is>
+      </c>
+      <c r="C169" t="n">
+        <v>200</v>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>Link is working fine</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>169</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>https://nz.mether.info/business-listing/Accountants</t>
+        </is>
+      </c>
+      <c r="C170" t="n">
+        <v>200</v>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>Link is working fine</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>170</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>https://nz.mether.info/business-listing/Air-Ticketing</t>
+        </is>
+      </c>
+      <c r="C171" t="n">
+        <v>200</v>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>Link is working fine</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>171</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>https://nz.mether.info/business-listing/Barber-Shops</t>
+        </is>
+      </c>
+      <c r="C172" t="n">
+        <v>200</v>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>Link is working fine</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>172</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>https://nz.mether.info/business-listing/Builders</t>
+        </is>
+      </c>
+      <c r="C173" t="n">
+        <v>200</v>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>Link is working fine</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>173</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>https://nz.mether.info/business-listing/Cafes</t>
+        </is>
+      </c>
+      <c r="C174" t="n">
+        <v>200</v>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>Link is working fine</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>174</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>https://nz.mether.info/business-listing/Carpenters</t>
+        </is>
+      </c>
+      <c r="C175" t="n">
+        <v>200</v>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>Link is working fine</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>175</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>https://nz.mether.info/business-listing/Chauffeur-Cars</t>
+        </is>
+      </c>
+      <c r="C176" t="n">
+        <v>200</v>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>Link is working fine</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>176</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>https://nz.mether.info/business-listing/Child-Care-Centres</t>
+        </is>
+      </c>
+      <c r="C177" t="n">
+        <v>200</v>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>Link is working fine</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>177</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>https://nz.mether.info/business-listing/Carpenters</t>
+        </is>
+      </c>
+      <c r="C178" t="n">
+        <v>200</v>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>Link is working fine</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>178</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>https://nz.mether.info/business-listing/Chauffeur-Cars</t>
+        </is>
+      </c>
+      <c r="C179" t="n">
+        <v>200</v>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>Link is working fine</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>179</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>https://nz.mether.info/business-listing/Child-Care-Centres</t>
+        </is>
+      </c>
+      <c r="C180" t="n">
+        <v>200</v>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>Link is working fine</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>180</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>https://nz.mether.info/business-listing/Cleaning-Companies</t>
+        </is>
+      </c>
+      <c r="C181" t="n">
+        <v>200</v>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>Link is working fine</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>181</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>https://nz.mether.info/business-listing/Colleges</t>
+        </is>
+      </c>
+      <c r="C182" t="n">
+        <v>200</v>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>Link is working fine</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>182</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>https://nz.mether.info/business-listing/Doctors</t>
+        </is>
+      </c>
+      <c r="C183" t="n">
+        <v>200</v>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>Link is working fine</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>183</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>https://nz.mether.info/business-listing/Electrician</t>
+        </is>
+      </c>
+      <c r="C184" t="n">
+        <v>200</v>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>Link is working fine</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>184</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>https://nz.mether.info/business-listing/Event-Organisers</t>
+        </is>
+      </c>
+      <c r="C185" t="n">
+        <v>200</v>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>Link is working fine</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>185</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>https://nz.mether.info/about.php</t>
+        </is>
+      </c>
+      <c r="C186" t="n">
+        <v>200</v>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>Link is working fine</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>186</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>https://nz.mether.info/faq.php</t>
+        </is>
+      </c>
+      <c r="C187" t="n">
+        <v>200</v>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>Link is working fine</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>187</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>https://nz.mether.info/feedback.php</t>
+        </is>
+      </c>
+      <c r="C188" t="n">
+        <v>200</v>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>Link is working fine</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>188</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>https://nz.mether.info/contact-us.php</t>
+        </is>
+      </c>
+      <c r="C189" t="n">
+        <v>200</v>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>Link is working fine</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>189</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>https://nz.mether.info/privacy-policy.php</t>
+        </is>
+      </c>
+      <c r="C190" t="n">
+        <v>200</v>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>Link is working fine</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>190</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>https://nz.mether.info/terms-of-use.php</t>
+        </is>
+      </c>
+      <c r="C191" t="n">
+        <v>200</v>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>Link is working fine</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>191</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>https://nz.mether.info/disclaimer.php</t>
+        </is>
+      </c>
+      <c r="C192" t="n">
+        <v>200</v>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>Link is working fine</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>192</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>https://nz.mether.info/blogs.php</t>
+        </is>
+      </c>
+      <c r="C193" t="n">
+        <v>200</v>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>Link is working fine</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>193</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>https://nz.mether.info/business-tag-listing/Colleges-in-Auckland/Colleges</t>
+        </is>
+      </c>
+      <c r="C194" t="n">
+        <v>200</v>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>Link is working fine</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>194</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>https://fb.com/au.mether.info</t>
+        </is>
+      </c>
+      <c r="C195" t="n">
+        <v>200</v>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>Link is working fine</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>195</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/mether.info/</t>
+        </is>
+      </c>
+      <c r="C196" t="n">
+        <v>200</v>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>Link is working fine</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>196</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>https://twitter.com/mether_info</t>
+        </is>
+      </c>
+      <c r="C197" t="n">
+        <v>403</v>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>Broken</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>Link is broken or inaccessible</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>197</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@metherinfotech?_t=8iAZfoiENv7&amp;_r=1</t>
+        </is>
+      </c>
+      <c r="C198" t="n">
+        <v>200</v>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>Link is working fine</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>198</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>https://policies.google.com/privacy</t>
+        </is>
+      </c>
+      <c r="C199" t="n">
+        <v>200</v>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>Link is working fine</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>199</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>https://policies.google.com/terms</t>
+        </is>
+      </c>
+      <c r="C200" t="n">
+        <v>200</v>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>Link is working fine</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>200</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>https://www.goldensparrowtech.com/</t>
+        </is>
+      </c>
+      <c r="C201" t="n">
+        <v>406</v>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>Broken</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>Link is broken or inaccessible</t>
         </is>
       </c>
     </row>
